--- a/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 4,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 7,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 9,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 7,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 4,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 5,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 5,61</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,04; 140,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,04; 82,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,12; 199,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; 142,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,62; 214,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 159,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 106,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,97; 126,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,07; 125,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 5,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 7,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; 4,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 9,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 3,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,17%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,03; 19,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,38; 54,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; 29,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 34,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 33,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,11; 18,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 19,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 37,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,46; 14,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,67; 19,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,41; 22,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 19,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 10,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,56; 22,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,97; 24,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,67; 13,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,0; 21,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 20,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,4%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,71; 74,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,62; 81,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,84; 75,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,24; 76,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,72; 169,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,4; 182,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,56; 68,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,08; 106,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,59; 101,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,62; 18,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,97; 23,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 13,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 9,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,17; 16,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,17; 24,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,24; 12,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,41; 18,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 17,82</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>287,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,85%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,05; 104,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,92; 129,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,5; 68,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,32; 157,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,91; 289,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>179,87; 456,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,81; 103,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,17; 146,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,44; 133,33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,78; 18,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,8; 26,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,93; 22,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 7,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 9,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,66; 16,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 11,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,95; 16,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 19,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,74%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,69%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,87; 166,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,57; 236,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,54; 212,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,09; 126,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,9; 156,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,23; 279,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,54; 126,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,78; 182,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,29; 213,11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 5,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 11,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 10,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 1,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 2,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,86; 2,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 1,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 5,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 3,73</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,89%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,09%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,82%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,63; 24,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 56,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,19; 54,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,16; 14,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,63; 31,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,09; 27,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,73; 10,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,51; 34,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,56; 22,67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 4,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 8,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 9,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 4,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 3,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 2,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 4,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 5,41</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,2%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,5; 34,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,56; 68,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 77,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,41; 168,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,2; 123,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,33; 156,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,24; 38,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 60,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 77,95</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,5</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>8,95</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 8,86</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 13,72</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 8,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 4,74</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 8,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 9,87</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 6,16</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 10,39</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 9,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>54,99%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>54,83%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>65,25%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>41,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>19,46; 44,61</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>42,03; 68,57</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 43,96</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 42,64</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>38,28; 75,97</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>34,08; 86,96</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 39,27</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 67,32</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>21,17; 57,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,73</t>
+          <t>-1,25; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,83</t>
+          <t>-2,93; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,29</t>
+          <t>-1,85; 7,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,92</t>
+          <t>-0,73; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,11</t>
+          <t>1,61; 8,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,49</t>
+          <t>-1,29; 7,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,2</t>
+          <t>-0,23; 4,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,07</t>
+          <t>0,53; 4,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,61</t>
+          <t>-1,0; 5,52</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 140,34</t>
+          <t>-23,35; 146,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 82,06</t>
+          <t>-46,56; 93,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 199,16</t>
+          <t>-37,75; 213,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 142,69</t>
+          <t>-10,84; 140,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,62; 214,01</t>
+          <t>21,59; 203,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 159,37</t>
+          <t>-20,78; 171,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 106,76</t>
+          <t>-6,31; 97,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 126,73</t>
+          <t>8,45; 122,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 125,92</t>
+          <t>-18,52; 129,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,1</t>
+          <t>-4,62; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 14,02</t>
+          <t>3,77; 14,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 7,59</t>
+          <t>-5,84; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,74</t>
+          <t>-2,06; 8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,33</t>
+          <t>-2,96; 6,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 4,29</t>
+          <t>-10,8; 4,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,62</t>
+          <t>-2,15; 4,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,27</t>
+          <t>2,02; 9,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 3,66</t>
+          <t>-7,21; 3,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 19,59</t>
+          <t>-14,93; 17,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 54,55</t>
+          <t>12,63; 55,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 29,01</t>
+          <t>-19,63; 29,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 34,95</t>
+          <t>-7,99; 38,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 33,66</t>
+          <t>-11,21; 33,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 18,22</t>
+          <t>-41,99; 17,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 19,22</t>
+          <t>-7,71; 20,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 37,43</t>
+          <t>7,06; 37,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 14,51</t>
+          <t>-26,22; 13,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 19,76</t>
+          <t>8,84; 18,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,05</t>
+          <t>10,99; 21,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,97</t>
+          <t>8,88; 20,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,52</t>
+          <t>2,0; 10,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,76</t>
+          <t>13,36; 22,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 24,75</t>
+          <t>10,44; 24,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 13,74</t>
+          <t>6,4; 13,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,0; 21,63</t>
+          <t>14,07; 21,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,72</t>
+          <t>11,01; 20,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,71; 74,05</t>
+          <t>27,12; 69,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,62; 81,6</t>
+          <t>33,73; 81,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,84; 75,46</t>
+          <t>27,27; 74,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 76,68</t>
+          <t>11,17; 80,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,72; 169,96</t>
+          <t>77,79; 175,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,4; 182,58</t>
+          <t>68,59; 186,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,56; 68,67</t>
+          <t>26,64; 64,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,08; 106,71</t>
+          <t>59,17; 104,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,59; 101,4</t>
+          <t>50,65; 101,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,62; 18,01</t>
+          <t>7,34; 18,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 23,11</t>
+          <t>11,79; 22,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 13,7</t>
+          <t>-10,27; 14,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 9,53</t>
+          <t>1,99; 9,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,03</t>
+          <t>8,19; 16,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 24,61</t>
+          <t>16,24; 24,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,57</t>
+          <t>5,31; 12,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,41; 18,03</t>
+          <t>11,21; 18,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 17,82</t>
+          <t>0,78; 17,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,05; 104,62</t>
+          <t>30,95; 99,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49,92; 129,2</t>
+          <t>50,43; 127,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 68,53</t>
+          <t>-45,17; 74,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,32; 157,7</t>
+          <t>21,85; 171,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,91; 289,52</t>
+          <t>90,01; 290,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>179,87; 456,55</t>
+          <t>172,25; 447,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,81; 103,23</t>
+          <t>33,39; 101,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>73,17; 146,92</t>
+          <t>69,81; 152,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,44; 133,33</t>
+          <t>6,62; 131,13</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,51</t>
+          <t>7,5; 18,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,8; 26,51</t>
+          <t>14,04; 25,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,93; 22,77</t>
+          <t>12,99; 23,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,71</t>
+          <t>-1,04; 7,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,76</t>
+          <t>1,38; 9,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,66; 16,66</t>
+          <t>8,78; 16,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,77</t>
+          <t>4,72; 11,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,39</t>
+          <t>8,84; 16,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,47; 19,0</t>
+          <t>12,29; 18,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>45,87; 166,66</t>
+          <t>45,61; 171,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>87,57; 236,45</t>
+          <t>83,49; 235,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>78,54; 212,11</t>
+          <t>76,68; 220,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 126,54</t>
+          <t>-12,26; 109,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,9; 156,21</t>
+          <t>11,56; 160,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>77,23; 279,87</t>
+          <t>82,38; 268,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>36,54; 126,51</t>
+          <t>38,44; 120,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>71,78; 182,89</t>
+          <t>72,55; 175,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>98,29; 213,11</t>
+          <t>98,27; 209,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,01</t>
+          <t>-8,33; 5,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 11,62</t>
+          <t>-3,24; 10,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 10,31</t>
+          <t>-2,87; 9,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,19</t>
+          <t>-7,7; 1,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,84</t>
+          <t>-6,11; 2,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 2,81</t>
+          <t>-11,53; 2,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,69</t>
+          <t>-6,32; 1,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,27</t>
+          <t>-2,86; 5,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 3,73</t>
+          <t>-9,87; 3,86</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 24,7</t>
+          <t>-30,75; 27,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 56,14</t>
+          <t>-12,54; 51,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 54,21</t>
+          <t>-10,34; 45,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 14,72</t>
+          <t>-54,13; 19,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 31,21</t>
+          <t>-43,23; 29,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 27,02</t>
+          <t>-72,5; 26,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 10,75</t>
+          <t>-33,15; 11,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 34,47</t>
+          <t>-14,63; 32,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 22,67</t>
+          <t>-54,42; 23,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 4,16</t>
+          <t>-9,45; 3,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 8,44</t>
+          <t>-4,66; 8,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,46</t>
+          <t>-2,44; 10,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,2</t>
+          <t>-2,53; 3,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,07</t>
+          <t>-3,8; 3,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,9</t>
+          <t>-2,17; 3,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,75</t>
+          <t>-4,09; 2,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,09</t>
+          <t>-2,4; 4,41</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,41</t>
+          <t>-0,45; 5,51</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 34,92</t>
+          <t>-46,96; 33,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 68,68</t>
+          <t>-23,21; 67,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 77,96</t>
+          <t>-14,05; 85,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 168,92</t>
+          <t>-44,39; 131,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 123,81</t>
+          <t>-62,5; 109,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 156,42</t>
+          <t>-30,55; 121,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 38,01</t>
+          <t>-38,13; 39,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 60,73</t>
+          <t>-22,91; 62,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 77,95</t>
+          <t>-5,19; 78,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,86</t>
+          <t>4,33; 8,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,72</t>
+          <t>9,12; 13,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,9</t>
+          <t>-0,42; 9,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,74</t>
+          <t>1,32; 4,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,4</t>
+          <t>4,81; 8,33</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,87</t>
+          <t>4,16; 9,93</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,16</t>
+          <t>3,27; 6,1</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,39</t>
+          <t>7,6; 10,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,03</t>
+          <t>3,8; 8,84</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>19,46; 44,61</t>
+          <t>20,02; 43,51</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>42,03; 68,57</t>
+          <t>41,62; 69,44</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 43,96</t>
+          <t>-1,05; 45,14</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,34; 42,64</t>
+          <t>10,48; 41,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>38,28; 75,97</t>
+          <t>37,28; 73,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>34,08; 86,96</t>
+          <t>33,86; 88,13</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>19,96; 39,27</t>
+          <t>19,14; 38,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>43,92; 67,32</t>
+          <t>44,28; 66,23</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>21,17; 57,0</t>
+          <t>22,94; 55,89</t>
         </is>
       </c>
     </row>
